--- a/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="56">
   <si>
     <t>No</t>
   </si>
@@ -52,9 +52,6 @@
   <si>
     <t>소재
 종류</t>
-  </si>
-  <si>
-    <t>)</t>
   </si>
   <si>
     <t>재질</t>
@@ -414,14 +411,19 @@
   <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -429,22 +431,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,14 +452,24 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -753,9 +750,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AC14"/>
+  <dimension ref="B1:AC5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -771,254 +770,249 @@
   <sheetData>
     <row r="1" spans="2:29" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:29" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>6</v>
       </c>
       <c r="I2" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="K2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="M2" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="13" t="s">
+      <c r="M2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="Q2" s="17"/>
-      <c r="R2" s="17"/>
-      <c r="S2" s="17"/>
-      <c r="T2" s="17"/>
-      <c r="U2" s="17"/>
-      <c r="V2" s="17"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="2" t="s">
+      <c r="N2" s="6"/>
+      <c r="O2" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="15"/>
+      <c r="S2" s="15"/>
+      <c r="T2" s="15"/>
+      <c r="U2" s="15"/>
+      <c r="V2" s="15"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="Y2" s="7" t="s">
+      <c r="Y2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="Z2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA2" s="2" t="s">
+      <c r="Z2" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA2" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AC2" s="17" t="s">
         <v>28</v>
-      </c>
-      <c r="AC2" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="3" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="10"/>
       <c r="J3" s="10"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="20" t="s">
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="O3" s="14"/>
-      <c r="P3" s="5" t="s">
+      <c r="N3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O3" s="12"/>
+      <c r="P3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="R3" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="S3" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R3" s="5" t="s">
+      <c r="T3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="U3" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="V3" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="S3" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="T3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="U3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="V3" s="5" t="s">
+      <c r="W3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="W3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="X3" s="3"/>
-      <c r="Y3" s="8"/>
-      <c r="Z3" s="3"/>
-      <c r="AA3" s="3"/>
-      <c r="AB3" s="3"/>
-      <c r="AC3" s="3"/>
+      <c r="X3" s="18"/>
+      <c r="Y3" s="21"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
+      <c r="AC3" s="18"/>
     </row>
     <row r="4" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="4"/>
-      <c r="AA4" s="4"/>
-      <c r="AB4" s="4"/>
-      <c r="AC4" s="4"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="19"/>
+      <c r="Y4" s="22"/>
+      <c r="Z4" s="19"/>
+      <c r="AA4" s="19"/>
+      <c r="AB4" s="19"/>
+      <c r="AC4" s="19"/>
     </row>
     <row r="5" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="21" t="s">
+      <c r="E5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="I5" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="K5" s="22" t="s">
+      <c r="L5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="L5" s="22" t="s">
+      <c r="M5" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="N5" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="O5" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="O5" s="22" t="s">
+      <c r="P5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="P5" s="22" t="s">
+      <c r="Q5" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="Q5" s="22" t="s">
+      <c r="R5" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="R5" s="22" t="s">
+      <c r="S5" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="S5" s="22" t="s">
+      <c r="T5" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="U5" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="U5" s="22" t="s">
+      <c r="V5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="V5" s="22" t="s">
+      <c r="W5" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="W5" s="22" t="s">
+      <c r="X5" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="Y5" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Z5" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="22" t="s">
+      <c r="AA5" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AA5" s="22" t="s">
+      <c r="AB5" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AB5" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="AC5" s="22"/>
-    </row>
-    <row r="14" spans="2:29" x14ac:dyDescent="0.3">
-      <c r="U14" t="s">
-        <v>8</v>
-      </c>
+      <c r="AC5" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="M2:N2"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="K2:K4"/>
-    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="AA2:AA4"/>
+    <mergeCell ref="AB2:AB4"/>
+    <mergeCell ref="AC2:AC4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X2:X4"/>
+    <mergeCell ref="Y2:Y4"/>
+    <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="R3:R4"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="T3:T4"/>
@@ -1033,14 +1027,14 @@
     <mergeCell ref="P2:W2"/>
     <mergeCell ref="P3:P4"/>
     <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="AA2:AA4"/>
-    <mergeCell ref="AB2:AB4"/>
-    <mergeCell ref="AC2:AC4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X2:X4"/>
-    <mergeCell ref="Y2:Y4"/>
-    <mergeCell ref="Z2:Z4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="K2:K4"/>
+    <mergeCell ref="N3:N4"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>규격</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -287,6 +287,10 @@
   </si>
   <si>
     <t>${data.UNIT_FINAL_EST_AMT}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.PREVIOUS_PRICE}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -578,6 +582,12 @@
     <xf numFmtId="176" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
@@ -639,12 +649,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1001,7 +1005,7 @@
   <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1027,34 +1031,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="21" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="19" t="s">
+      <c r="G1" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="H1" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="29" t="s">
+      <c r="I1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="15" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1063,16 +1067,16 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="15" t="s">
+      <c r="M1" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="N1" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="15" t="s">
+      <c r="O1" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="P1" s="17" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1084,50 +1088,50 @@
       <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="T1" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="13" t="s">
+      <c r="V1" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="13" t="s">
+      <c r="W1" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="25" t="s">
+      <c r="X1" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="27" t="s">
+      <c r="Y1" s="29" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="18"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="14"/>
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="16"/>
-      <c r="N2" s="16" t="s">
+      <c r="M2" s="18"/>
+      <c r="N2" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="16" t="s">
+      <c r="O2" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="16" t="s">
+      <c r="P2" s="18" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="6" t="s">
@@ -1139,33 +1143,33 @@
       <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="14"/>
-      <c r="U2" s="14"/>
-      <c r="V2" s="14"/>
-      <c r="W2" s="14"/>
-      <c r="X2" s="26"/>
-      <c r="Y2" s="28"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="16"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="30"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="25" t="s">
         <v>40</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="25" t="s">
         <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
@@ -1188,37 +1192,39 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="32" t="s">
+      <c r="T3" s="34" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="32" t="s">
+      <c r="U3" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="23" t="s">
+      <c r="V3" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="X3" s="32" t="s">
+      <c r="X3" s="34" t="s">
         <v>50</v>
       </c>
-      <c r="Y3" s="32"/>
+      <c r="Y3" s="34" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="24"/>
+      <c r="A4" s="26"/>
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
-      <c r="H4" s="34"/>
-      <c r="I4" s="34"/>
-      <c r="J4" s="34"/>
-      <c r="K4" s="35" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
         <v>39</v>
       </c>
       <c r="L4" s="11"/>
@@ -1229,12 +1235,12 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="33"/>
-      <c r="U4" s="33"/>
-      <c r="V4" s="24"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="33"/>
-      <c r="Y4" s="33"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="35"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
+      <c r="Y4" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="32">
@@ -1273,7 +1279,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
@@ -238,14 +238,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.UNIT_TM_AMT}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.UNIT_HEAT_AMT}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.ROW_NUM}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,6 +283,14 @@
   </si>
   <si>
     <t>${data.PREVIOUS_PRICE}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_TM_AMT}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -588,68 +588,68 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1031,34 +1031,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="25" t="s">
         <v>27</v>
       </c>
       <c r="K1" s="1" t="s">
@@ -1067,16 +1067,16 @@
       <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="23" t="s">
         <v>9</v>
       </c>
       <c r="Q1" s="3" t="s">
@@ -1088,50 +1088,50 @@
       <c r="S1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="T1" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="V1" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="15" t="s">
+      <c r="W1" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="X1" s="27" t="s">
+      <c r="X1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="29" t="s">
+      <c r="Y1" s="21" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="32"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="16"/>
+      <c r="A2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="26"/>
       <c r="K2" s="4" t="s">
         <v>19</v>
       </c>
       <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18" t="s">
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="18" t="s">
+      <c r="O2" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="P2" s="18" t="s">
+      <c r="P2" s="24" t="s">
         <v>32</v>
       </c>
       <c r="Q2" s="6" t="s">
@@ -1143,34 +1143,34 @@
       <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="16"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="30"/>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="22"/>
     </row>
     <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="25" t="s">
-        <v>40</v>
+      <c r="A3" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="F3" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="25" t="s">
+      <c r="G3" s="17" t="s">
         <v>43</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="G3" s="25" t="s">
-        <v>45</v>
       </c>
       <c r="H3" s="11" t="s">
         <v>35</v>
@@ -1182,7 +1182,7 @@
         <v>37</v>
       </c>
       <c r="K3" s="12" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -1192,40 +1192,40 @@
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="U3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="W3" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="X3" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="Y3" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="X3" s="34" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y3" s="34" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="26"/>
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="26"/>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
       <c r="J4" s="13"/>
       <c r="K4" s="14" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
@@ -1235,22 +1235,24 @@
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
       <c r="S4" s="9"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="35"/>
-      <c r="V4" s="26"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
-      <c r="Y4" s="35"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="X1:X2"/>
     <mergeCell ref="Y1:Y2"/>
@@ -1267,15 +1269,13 @@
     <mergeCell ref="G1:G2"/>
     <mergeCell ref="H1:H2"/>
     <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_2021\jmes1\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>규격</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,11 +74,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>파
-트</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>밀링면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -114,11 +109,6 @@
   <si>
     <t>C/B
 Hole</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>관리번호
-(도면번호)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -222,10 +212,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.CONTROL_NUM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.MATERIAL_DETAIL_NM}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -242,10 +228,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.PART_NUM}//:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.SIZE_TXT}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -254,10 +236,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${data.CONTROL_PART_QTY}//:1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>${data.WORK_TYPE_NM}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -291,6 +269,19 @@
   </si>
   <si>
     <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.REGIST_NUM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>접수번호
+(도면번호)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>${data.ORDER_QTY}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -588,11 +579,35 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -612,24 +627,6 @@
     <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -639,17 +636,11 @@
     <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -673,13 +664,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>12456</xdr:rowOff>
@@ -1002,188 +993,181 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:X4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:A2"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.125" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="3.125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="5.125" style="8" customWidth="1"/>
-    <col min="6" max="6" width="4.25" style="8" customWidth="1"/>
-    <col min="7" max="7" width="5" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.125" style="8" customWidth="1"/>
-    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="8" customWidth="1"/>
-    <col min="11" max="11" width="7.25" style="8" customWidth="1"/>
-    <col min="12" max="19" width="4.5" style="8" customWidth="1"/>
-    <col min="20" max="21" width="8.375" style="8" customWidth="1"/>
-    <col min="22" max="22" width="10.5" style="8" customWidth="1"/>
-    <col min="23" max="23" width="9" style="8" customWidth="1"/>
-    <col min="24" max="24" width="10.25" style="8" customWidth="1"/>
-    <col min="25" max="25" width="8.5" style="8" customWidth="1"/>
-    <col min="26" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.3984375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="5.09765625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="4.19921875" style="8" customWidth="1"/>
+    <col min="6" max="6" width="5" style="8" customWidth="1"/>
+    <col min="7" max="7" width="8.09765625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.69921875" style="8" customWidth="1"/>
+    <col min="9" max="9" width="7.3984375" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.19921875" style="8" customWidth="1"/>
+    <col min="11" max="18" width="4.5" style="8" customWidth="1"/>
+    <col min="19" max="20" width="8.3984375" style="8" customWidth="1"/>
+    <col min="21" max="21" width="10.5" style="8" customWidth="1"/>
+    <col min="22" max="22" width="9" style="8" customWidth="1"/>
+    <col min="23" max="23" width="10.19921875" style="8" customWidth="1"/>
+    <col min="24" max="24" width="8.5" style="8" customWidth="1"/>
+    <col min="25" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:24" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="G1" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L1" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M1" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="S1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="T1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="34" t="s">
+      <c r="U1" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="W1" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="29" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="20"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="H1" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="M1" s="23" t="s">
-        <v>3</v>
-      </c>
-      <c r="N1" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="O1" s="23" t="s">
+      <c r="K2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="P2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="T1" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="U1" s="25" t="s">
-        <v>28</v>
-      </c>
-      <c r="V1" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="W1" s="25" t="s">
-        <v>31</v>
-      </c>
-      <c r="X1" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y1" s="21" t="s">
-        <v>25</v>
-      </c>
+      <c r="Q2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="R2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="16"/>
+      <c r="V2" s="16"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="30"/>
     </row>
-    <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="33"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="M2" s="24"/>
-      <c r="N2" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="O2" s="24" t="s">
-        <v>5</v>
-      </c>
-      <c r="P2" s="24" t="s">
+    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" s="25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="R2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-      <c r="V2" s="26"/>
-      <c r="W2" s="26"/>
-      <c r="X2" s="20"/>
-      <c r="Y2" s="22"/>
-    </row>
-    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="17" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="10" t="s">
+      <c r="H3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="17" t="s">
-        <v>42</v>
-      </c>
-      <c r="G3" s="17" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>50</v>
-      </c>
+      <c r="J3" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1191,95 +1175,91 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="15" t="s">
+      <c r="S3" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="T3" s="34" t="s">
+        <v>40</v>
+      </c>
+      <c r="U3" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="V3" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="W3" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="X3" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="U3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="V3" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="W3" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="X3" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="Y3" s="15" t="s">
-        <v>49</v>
-      </c>
     </row>
-    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18"/>
+    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26"/>
       <c r="B4" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C4" s="18"/>
-      <c r="D4" s="18"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="18"/>
+        <v>31</v>
+      </c>
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="J4" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K4" s="11"/>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+      <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="9"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="18"/>
-      <c r="W4" s="16"/>
-      <c r="X4" s="16"/>
-      <c r="Y4" s="16"/>
+      <c r="S4" s="35"/>
+      <c r="T4" s="35"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="35"/>
+      <c r="W4" s="35"/>
+      <c r="X4" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="32">
-    <mergeCell ref="J1:J2"/>
+  <mergeCells count="30">
+    <mergeCell ref="X3:X4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="N1:N2"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="S1:S2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="L1:L2"/>
     <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:N2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="Y1:Y2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="P1:P2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="Y3:Y4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
+++ b/src/main/resources/excelTemplate/control_estimate_list_template.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\project_2021\jmes1\src\main\resources\excelTemplate\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Project\j-mes\workspace\src\main\resources\excelTemplate\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12252"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$X$42</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$Y$42</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>규격</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -74,6 +74,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>파
+트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>밀링면</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -109,6 +114,11 @@
   <si>
     <t>C/B
 Hole</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리번호
+(도면번호)</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -212,6 +222,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>${data.CONTROL_NUM}</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${data.MATERIAL_DETAIL_NM}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,6 +242,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>${data.PART_NUM}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${data.SIZE_TXT}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -236,6 +254,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>${data.CONTROL_PART_QTY}//:1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>${data.WORK_TYPE_NM}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -269,19 +291,6 @@
   </si>
   <si>
     <t>${data.UNIT_MATERIAL_FINISH_HEAT_AMT}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.REGIST_NUM}</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>접수번호
-(도면번호)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>${data.ORDER_QTY}//:1</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,68 +588,68 @@
     <xf numFmtId="41" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="41" fontId="3" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="4" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -664,13 +673,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>12456</xdr:rowOff>
@@ -993,181 +1002,188 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:X4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection sqref="A1:A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.09765625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="18.3984375" style="8" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="5.09765625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="4.19921875" style="8" customWidth="1"/>
-    <col min="6" max="6" width="5" style="8" customWidth="1"/>
-    <col min="7" max="7" width="8.09765625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="8.69921875" style="8" customWidth="1"/>
-    <col min="9" max="9" width="7.3984375" style="8" customWidth="1"/>
-    <col min="10" max="10" width="7.19921875" style="8" customWidth="1"/>
-    <col min="11" max="18" width="4.5" style="8" customWidth="1"/>
-    <col min="19" max="20" width="8.3984375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="10.5" style="8" customWidth="1"/>
-    <col min="22" max="22" width="9" style="8" customWidth="1"/>
-    <col min="23" max="23" width="10.19921875" style="8" customWidth="1"/>
-    <col min="24" max="24" width="8.5" style="8" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="8"/>
+    <col min="1" max="1" width="3.125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="18.375" style="8" customWidth="1"/>
+    <col min="3" max="3" width="3.125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="8" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="8" customWidth="1"/>
+    <col min="6" max="6" width="4.25" style="8" customWidth="1"/>
+    <col min="7" max="7" width="5" style="8" customWidth="1"/>
+    <col min="8" max="8" width="8.125" style="8" customWidth="1"/>
+    <col min="9" max="9" width="8.75" style="8" customWidth="1"/>
+    <col min="10" max="10" width="7.375" style="8" customWidth="1"/>
+    <col min="11" max="11" width="7.25" style="8" customWidth="1"/>
+    <col min="12" max="19" width="4.5" style="8" customWidth="1"/>
+    <col min="20" max="21" width="8.375" style="8" customWidth="1"/>
+    <col min="22" max="22" width="10.5" style="8" customWidth="1"/>
+    <col min="23" max="23" width="9" style="8" customWidth="1"/>
+    <col min="24" max="24" width="10.25" style="8" customWidth="1"/>
+    <col min="25" max="25" width="8.5" style="8" customWidth="1"/>
+    <col min="26" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:25" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="M1" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="N1" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R1" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="T1" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="U1" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="V1" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="W1" s="25" t="s">
+        <v>31</v>
+      </c>
+      <c r="X1" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="B1" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="C1" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="21" t="s">
+      <c r="Y1" s="21" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="33"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="26"/>
+      <c r="K2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="N2" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="O2" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="G1" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="31" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="J1" s="1" t="s">
+      <c r="R2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="L1" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q1" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="R1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="S1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="T1" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U1" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="W1" s="27" t="s">
-        <v>22</v>
-      </c>
-      <c r="X1" s="29" t="s">
-        <v>23</v>
-      </c>
+      <c r="T2" s="26"/>
+      <c r="U2" s="26"/>
+      <c r="V2" s="26"/>
+      <c r="W2" s="26"/>
+      <c r="X2" s="20"/>
+      <c r="Y2" s="22"/>
     </row>
-    <row r="2" spans="1:24" customFormat="1" ht="21.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="20"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="N2" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="R2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="S2" s="16"/>
-      <c r="T2" s="16"/>
-      <c r="U2" s="16"/>
-      <c r="V2" s="16"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="30"/>
-    </row>
-    <row r="3" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="25" t="s">
+    <row r="3" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H3" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="25" t="s">
+      <c r="I3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="25" t="s">
+      <c r="J3" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="F3" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="K3" s="11"/>
+      <c r="K3" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
       <c r="N3" s="11"/>
@@ -1175,91 +1191,95 @@
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
-      <c r="S3" s="34" t="s">
-        <v>39</v>
-      </c>
-      <c r="T3" s="34" t="s">
-        <v>40</v>
-      </c>
-      <c r="U3" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="V3" s="34" t="s">
-        <v>42</v>
-      </c>
-      <c r="W3" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="X3" s="34" t="s">
+      <c r="S3" s="11"/>
+      <c r="T3" s="15" t="s">
         <v>44</v>
       </c>
+      <c r="U3" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="V3" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="W3" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="X3" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="Y3" s="15" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="4" spans="1:24" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26"/>
+    <row r="4" spans="1:25" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18"/>
       <c r="B4" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="13"/>
+        <v>33</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="18"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="J4" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="K4" s="11"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="14" t="s">
+        <v>51</v>
+      </c>
       <c r="L4" s="11"/>
       <c r="M4" s="11"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
-      <c r="P4" s="9"/>
+      <c r="P4" s="11"/>
       <c r="Q4" s="9"/>
       <c r="R4" s="9"/>
-      <c r="S4" s="35"/>
-      <c r="T4" s="35"/>
-      <c r="U4" s="26"/>
-      <c r="V4" s="35"/>
-      <c r="W4" s="35"/>
-      <c r="X4" s="35"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="16"/>
+      <c r="U4" s="16"/>
+      <c r="V4" s="18"/>
+      <c r="W4" s="16"/>
+      <c r="X4" s="16"/>
+      <c r="Y4" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="X3:X4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="W3:W4"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="W1:W2"/>
-    <mergeCell ref="X1:X2"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
+  <mergeCells count="32">
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="M1:M2"/>
     <mergeCell ref="N1:N2"/>
-    <mergeCell ref="O1:O2"/>
-    <mergeCell ref="S1:S2"/>
-    <mergeCell ref="T1:T2"/>
-    <mergeCell ref="U1:U2"/>
-    <mergeCell ref="V1:V2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="C1:C2"/>
     <mergeCell ref="D1:D2"/>
     <mergeCell ref="E1:E2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="X1:X2"/>
+    <mergeCell ref="Y1:Y2"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="O1:O2"/>
+    <mergeCell ref="P1:P2"/>
+    <mergeCell ref="T1:T2"/>
+    <mergeCell ref="U1:U2"/>
+    <mergeCell ref="V1:V2"/>
+    <mergeCell ref="W1:W2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="Y3:Y4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="W3:W4"/>
+    <mergeCell ref="X3:X4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="47" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>